--- a/medicine/Soins infirmiers et profession infirmière/Fondation_d'Aligre_et_Marie-Thérèse/Fondation_d'Aligre_et_Marie-Thérèse.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Fondation_d'Aligre_et_Marie-Thérèse/Fondation_d'Aligre_et_Marie-Thérèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fondation_d%27Aligre_et_Marie-Th%C3%A9r%C3%A8se</t>
+          <t>Fondation_d'Aligre_et_Marie-Thérèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation d'Aligre et Marie-Thérèse, communément appelée Fondation d'Aligre, est un établissement médico-social fondé en 1818 et 1828 à Lèves, dans le département français d'Eure-et-Loir.
 C'est un établissement public départemental à vocation de maison de retraite et foyer de vie d'occupations pour adultes handicapés.
-Le site comprend également[1] :
+Le site comprend également :
 Les restes de l'ancienne abbaye Notre-Dame de Josaphat fondée en 1117, ainsi que son musée lapidaire,  Classé MH (1914) ;
 le cloître du XVe siècle, partiellement reconstruit à Lèves en 1818, de l'ancienne abbaye Notre-Dame de Coulombs,  Inscrit MH (1928).
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fondation_d%27Aligre_et_Marie-Th%C3%A9r%C3%A8se</t>
+          <t>Fondation_d'Aligre_et_Marie-Thérèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation d'Aligre s'élève sur l'emplacement de l'ancienne abbaye Notre-Dame de Josaphat, fondée en 1117 par Geoffroy de Lèves et son frère Goslein, seigneur de Lèves. Elle servit de nécropole pour les évêques de Chartres et fut notamment le lieu d'inhumation de Jean de Salisbury, mort en 1180.
 En 1791, durant la Révolution, l'abbaye fut en partie démolie et pillée. Après la Révolution, les vestiges de l'abbaye devinrent propriété de la famille d'Aligre, originaire de Chartres et disposant d'une fortune considérable.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fondation_d%27Aligre_et_Marie-Th%C3%A9r%C3%A8se</t>
+          <t>Fondation_d'Aligre_et_Marie-Thérèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +570,12 @@
           <t>Effectif actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2006, la Fondation d'Aligre est un établissement médico-social public, qui accueille environ 260 personnes, réparties entre la maison de retraite (60), le foyer de vie d'occupations (180) et le foyer d'accueil médicalisé (20)[2].
-Elle emploie environ 250 personnes quotidiennement[3]. C'est le plus important employeur de la ville de Lèves.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2006, la Fondation d'Aligre est un établissement médico-social public, qui accueille environ 260 personnes, réparties entre la maison de retraite (60), le foyer de vie d'occupations (180) et le foyer d'accueil médicalisé (20).
+Elle emploie environ 250 personnes quotidiennement. C'est le plus important employeur de la ville de Lèves.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fondation_d%27Aligre_et_Marie-Th%C3%A9r%C3%A8se</t>
+          <t>Fondation_d'Aligre_et_Marie-Thérèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Conseil d'administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fondation est dirigée par un conseil d'administration composé de représentants du département, du personnel, de la commune de Lèves, de personnes compétentes, dont un descendant des fondateurs (Aymeric de Rougé, vice-président de la fondation depuis 2021). En 2021, le président du conseil d'Administration est Rémi Martial, conseiller départemental et maire de Lèves.
 </t>
